--- a/v2/data/raw/c101/c101_data.xlsx
+++ b/v2/data/raw/c101/c101_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/v2/data/raw/c101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3036A-5330-0543-AB4B-ABE8414E9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A36A5A-05D5-B344-BA5D-06690483499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3500" yWindow="-23160" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -8446,7 +8446,7 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17628,7 +17628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -19428,7 +19428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -20002,8 +20002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187BD0CE-4648-3A47-94F5-7184764274A6}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
